--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.09175976129877</v>
+        <v>0.3056536666666667</v>
       </c>
       <c r="H2">
-        <v>2.09175976129877</v>
+        <v>0.916961</v>
       </c>
       <c r="I2">
-        <v>0.7058499492262128</v>
+        <v>0.09028452848253411</v>
       </c>
       <c r="J2">
-        <v>0.7058499492262128</v>
+        <v>0.09028452848253413</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>22.4062433457511</v>
+        <v>1.085919666666667</v>
       </c>
       <c r="N2">
-        <v>22.4062433457511</v>
+        <v>3.257759</v>
       </c>
       <c r="O2">
-        <v>0.2838699704618731</v>
+        <v>0.01328373466302725</v>
       </c>
       <c r="P2">
-        <v>0.2838699704618731</v>
+        <v>0.01328373466302725</v>
       </c>
       <c r="Q2">
-        <v>46.86847823251048</v>
+        <v>0.3319153278221111</v>
       </c>
       <c r="R2">
-        <v>46.86847823251048</v>
+        <v>2.987237950399</v>
       </c>
       <c r="S2">
-        <v>0.2003696042373596</v>
+        <v>0.00119931572053851</v>
       </c>
       <c r="T2">
-        <v>0.2003696042373596</v>
+        <v>0.00119931572053851</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.09175976129877</v>
+        <v>0.3056536666666667</v>
       </c>
       <c r="H3">
-        <v>2.09175976129877</v>
+        <v>0.916961</v>
       </c>
       <c r="I3">
-        <v>0.7058499492262128</v>
+        <v>0.09028452848253411</v>
       </c>
       <c r="J3">
-        <v>0.7058499492262128</v>
+        <v>0.09028452848253413</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.5251184650626</v>
+        <v>22.453096</v>
       </c>
       <c r="N3">
-        <v>56.5251184650626</v>
+        <v>67.35928799999999</v>
       </c>
       <c r="O3">
-        <v>0.7161300295381269</v>
+        <v>0.2746620940598846</v>
       </c>
       <c r="P3">
-        <v>0.7161300295381269</v>
+        <v>0.2746620940598846</v>
       </c>
       <c r="Q3">
-        <v>118.236968307864</v>
+        <v>6.862871120418666</v>
       </c>
       <c r="R3">
-        <v>118.236968307864</v>
+        <v>61.765840083768</v>
       </c>
       <c r="S3">
-        <v>0.5054803449888531</v>
+        <v>0.02479773765422212</v>
       </c>
       <c r="T3">
-        <v>0.5054803449888531</v>
+        <v>0.02479773765422211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.316132012453092</v>
+        <v>0.3056536666666667</v>
       </c>
       <c r="H4">
-        <v>0.316132012453092</v>
+        <v>0.916961</v>
       </c>
       <c r="I4">
-        <v>0.1066765739867982</v>
+        <v>0.09028452848253411</v>
       </c>
       <c r="J4">
-        <v>0.1066765739867982</v>
+        <v>0.09028452848253413</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>22.4062433457511</v>
+        <v>0.05304933333333334</v>
       </c>
       <c r="N4">
-        <v>22.4062433457511</v>
+        <v>0.159148</v>
       </c>
       <c r="O4">
-        <v>0.2838699704618731</v>
+        <v>0.0006489368317765253</v>
       </c>
       <c r="P4">
-        <v>0.2838699704618731</v>
+        <v>0.0006489368317765253</v>
       </c>
       <c r="Q4">
-        <v>7.083330800405998</v>
+        <v>0.01621472324755556</v>
       </c>
       <c r="R4">
-        <v>7.083330800405998</v>
+        <v>0.145932509228</v>
       </c>
       <c r="S4">
-        <v>0.03028227590660621</v>
+        <v>5.858895587189314E-05</v>
       </c>
       <c r="T4">
-        <v>0.03028227590660621</v>
+        <v>5.858895587189316E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.316132012453092</v>
+        <v>0.3056536666666667</v>
       </c>
       <c r="H5">
-        <v>0.316132012453092</v>
+        <v>0.916961</v>
       </c>
       <c r="I5">
-        <v>0.1066765739867982</v>
+        <v>0.09028452848253411</v>
       </c>
       <c r="J5">
-        <v>0.1066765739867982</v>
+        <v>0.09028452848253413</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.5251184650626</v>
+        <v>58.15600466666667</v>
       </c>
       <c r="N5">
-        <v>56.5251184650626</v>
+        <v>174.468014</v>
       </c>
       <c r="O5">
-        <v>0.7161300295381269</v>
+        <v>0.7114052344453117</v>
       </c>
       <c r="P5">
-        <v>0.7161300295381269</v>
+        <v>0.7114052344453117</v>
       </c>
       <c r="Q5">
-        <v>17.86939945450967</v>
+        <v>17.77559606505044</v>
       </c>
       <c r="R5">
-        <v>17.86939945450967</v>
+        <v>159.980364585454</v>
       </c>
       <c r="S5">
-        <v>0.07639429808019195</v>
+        <v>0.0642288861519016</v>
       </c>
       <c r="T5">
-        <v>0.07639429808019195</v>
+        <v>0.06422888615190162</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.555570593273678</v>
+        <v>2.160221</v>
       </c>
       <c r="H6">
-        <v>0.555570593273678</v>
+        <v>6.480663</v>
       </c>
       <c r="I6">
-        <v>0.187473476786989</v>
+        <v>0.6380899549808606</v>
       </c>
       <c r="J6">
-        <v>0.187473476786989</v>
+        <v>0.6380899549808607</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>22.4062433457511</v>
+        <v>1.085919666666667</v>
       </c>
       <c r="N6">
-        <v>22.4062433457511</v>
+        <v>3.257759</v>
       </c>
       <c r="O6">
-        <v>0.2838699704618731</v>
+        <v>0.01328373466302725</v>
       </c>
       <c r="P6">
-        <v>0.2838699704618731</v>
+        <v>0.01328373466302725</v>
       </c>
       <c r="Q6">
-        <v>12.44824990863334</v>
+        <v>2.345826468246333</v>
       </c>
       <c r="R6">
-        <v>12.44824990863334</v>
+        <v>21.112438214217</v>
       </c>
       <c r="S6">
-        <v>0.0532180903179072</v>
+        <v>0.008476217653108757</v>
       </c>
       <c r="T6">
-        <v>0.0532180903179072</v>
+        <v>0.008476217653108757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.160221</v>
+      </c>
+      <c r="H7">
+        <v>6.480663</v>
+      </c>
+      <c r="I7">
+        <v>0.6380899549808606</v>
+      </c>
+      <c r="J7">
+        <v>0.6380899549808607</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>22.453096</v>
+      </c>
+      <c r="N7">
+        <v>67.35928799999999</v>
+      </c>
+      <c r="O7">
+        <v>0.2746620940598846</v>
+      </c>
+      <c r="P7">
+        <v>0.2746620940598846</v>
+      </c>
+      <c r="Q7">
+        <v>48.503649494216</v>
+      </c>
+      <c r="R7">
+        <v>436.5328454479439</v>
+      </c>
+      <c r="S7">
+        <v>0.1752591232336207</v>
+      </c>
+      <c r="T7">
+        <v>0.1752591232336207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.160221</v>
+      </c>
+      <c r="H8">
+        <v>6.480663</v>
+      </c>
+      <c r="I8">
+        <v>0.6380899549808606</v>
+      </c>
+      <c r="J8">
+        <v>0.6380899549808607</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.05304933333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.159148</v>
+      </c>
+      <c r="O8">
+        <v>0.0006489368317765253</v>
+      </c>
+      <c r="P8">
+        <v>0.0006489368317765253</v>
+      </c>
+      <c r="Q8">
+        <v>0.1145982839026667</v>
+      </c>
+      <c r="R8">
+        <v>1.031384555124</v>
+      </c>
+      <c r="S8">
+        <v>0.0004140800737737053</v>
+      </c>
+      <c r="T8">
+        <v>0.0004140800737737054</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.160221</v>
+      </c>
+      <c r="H9">
+        <v>6.480663</v>
+      </c>
+      <c r="I9">
+        <v>0.6380899549808606</v>
+      </c>
+      <c r="J9">
+        <v>0.6380899549808607</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>58.15600466666667</v>
+      </c>
+      <c r="N9">
+        <v>174.468014</v>
+      </c>
+      <c r="O9">
+        <v>0.7114052344453117</v>
+      </c>
+      <c r="P9">
+        <v>0.7114052344453117</v>
+      </c>
+      <c r="Q9">
+        <v>125.6298225570313</v>
+      </c>
+      <c r="R9">
+        <v>1130.668403013282</v>
+      </c>
+      <c r="S9">
+        <v>0.4539405340203575</v>
+      </c>
+      <c r="T9">
+        <v>0.4539405340203576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3550333333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.0651</v>
+      </c>
+      <c r="I10">
+        <v>0.1048703830225572</v>
+      </c>
+      <c r="J10">
+        <v>0.1048703830225572</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.085919666666667</v>
+      </c>
+      <c r="N10">
+        <v>3.257759</v>
+      </c>
+      <c r="O10">
+        <v>0.01328373466302725</v>
+      </c>
+      <c r="P10">
+        <v>0.01328373466302725</v>
+      </c>
+      <c r="Q10">
+        <v>0.3855376789888889</v>
+      </c>
+      <c r="R10">
+        <v>3.4698391109</v>
+      </c>
+      <c r="S10">
+        <v>0.001393070342081688</v>
+      </c>
+      <c r="T10">
+        <v>0.001393070342081688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.555570593273678</v>
-      </c>
-      <c r="H7">
-        <v>0.555570593273678</v>
-      </c>
-      <c r="I7">
-        <v>0.187473476786989</v>
-      </c>
-      <c r="J7">
-        <v>0.187473476786989</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>56.5251184650626</v>
-      </c>
-      <c r="N7">
-        <v>56.5251184650626</v>
-      </c>
-      <c r="O7">
-        <v>0.7161300295381269</v>
-      </c>
-      <c r="P7">
-        <v>0.7161300295381269</v>
-      </c>
-      <c r="Q7">
-        <v>31.40369360049976</v>
-      </c>
-      <c r="R7">
-        <v>31.40369360049976</v>
-      </c>
-      <c r="S7">
-        <v>0.1342553864690818</v>
-      </c>
-      <c r="T7">
-        <v>0.1342553864690818</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3550333333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.0651</v>
+      </c>
+      <c r="I11">
+        <v>0.1048703830225572</v>
+      </c>
+      <c r="J11">
+        <v>0.1048703830225572</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>22.453096</v>
+      </c>
+      <c r="N11">
+        <v>67.35928799999999</v>
+      </c>
+      <c r="O11">
+        <v>0.2746620940598846</v>
+      </c>
+      <c r="P11">
+        <v>0.2746620940598846</v>
+      </c>
+      <c r="Q11">
+        <v>7.971597516533333</v>
+      </c>
+      <c r="R11">
+        <v>71.74437764879998</v>
+      </c>
+      <c r="S11">
+        <v>0.02880391900583773</v>
+      </c>
+      <c r="T11">
+        <v>0.02880391900583773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3550333333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.0651</v>
+      </c>
+      <c r="I12">
+        <v>0.1048703830225572</v>
+      </c>
+      <c r="J12">
+        <v>0.1048703830225572</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.05304933333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.159148</v>
+      </c>
+      <c r="O12">
+        <v>0.0006489368317765253</v>
+      </c>
+      <c r="P12">
+        <v>0.0006489368317765253</v>
+      </c>
+      <c r="Q12">
+        <v>0.01883428164444444</v>
+      </c>
+      <c r="R12">
+        <v>0.1695085348</v>
+      </c>
+      <c r="S12">
+        <v>6.805425410584897E-05</v>
+      </c>
+      <c r="T12">
+        <v>6.805425410584899E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3550333333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.0651</v>
+      </c>
+      <c r="I13">
+        <v>0.1048703830225572</v>
+      </c>
+      <c r="J13">
+        <v>0.1048703830225572</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>58.15600466666667</v>
+      </c>
+      <c r="N13">
+        <v>174.468014</v>
+      </c>
+      <c r="O13">
+        <v>0.7114052344453117</v>
+      </c>
+      <c r="P13">
+        <v>0.7114052344453117</v>
+      </c>
+      <c r="Q13">
+        <v>20.64732019015555</v>
+      </c>
+      <c r="R13">
+        <v>185.8258817114</v>
+      </c>
+      <c r="S13">
+        <v>0.07460533942053194</v>
+      </c>
+      <c r="T13">
+        <v>0.07460533942053195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.564541</v>
+      </c>
+      <c r="H14">
+        <v>1.693623</v>
+      </c>
+      <c r="I14">
+        <v>0.1667551335140479</v>
+      </c>
+      <c r="J14">
+        <v>0.1667551335140479</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.085919666666667</v>
+      </c>
+      <c r="N14">
+        <v>3.257759</v>
+      </c>
+      <c r="O14">
+        <v>0.01328373466302725</v>
+      </c>
+      <c r="P14">
+        <v>0.01328373466302725</v>
+      </c>
+      <c r="Q14">
+        <v>0.6130461745396666</v>
+      </c>
+      <c r="R14">
+        <v>5.517415570857</v>
+      </c>
+      <c r="S14">
+        <v>0.002215130947298295</v>
+      </c>
+      <c r="T14">
+        <v>0.002215130947298295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.564541</v>
+      </c>
+      <c r="H15">
+        <v>1.693623</v>
+      </c>
+      <c r="I15">
+        <v>0.1667551335140479</v>
+      </c>
+      <c r="J15">
+        <v>0.1667551335140479</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>22.453096</v>
+      </c>
+      <c r="N15">
+        <v>67.35928799999999</v>
+      </c>
+      <c r="O15">
+        <v>0.2746620940598846</v>
+      </c>
+      <c r="P15">
+        <v>0.2746620940598846</v>
+      </c>
+      <c r="Q15">
+        <v>12.675693268936</v>
+      </c>
+      <c r="R15">
+        <v>114.081239420424</v>
+      </c>
+      <c r="S15">
+        <v>0.04580131416620404</v>
+      </c>
+      <c r="T15">
+        <v>0.04580131416620403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.564541</v>
+      </c>
+      <c r="H16">
+        <v>1.693623</v>
+      </c>
+      <c r="I16">
+        <v>0.1667551335140479</v>
+      </c>
+      <c r="J16">
+        <v>0.1667551335140479</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.05304933333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.159148</v>
+      </c>
+      <c r="O16">
+        <v>0.0006489368317765253</v>
+      </c>
+      <c r="P16">
+        <v>0.0006489368317765253</v>
+      </c>
+      <c r="Q16">
+        <v>0.02994852368933333</v>
+      </c>
+      <c r="R16">
+        <v>0.269536713204</v>
+      </c>
+      <c r="S16">
+        <v>0.0001082135480250777</v>
+      </c>
+      <c r="T16">
+        <v>0.0001082135480250777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.564541</v>
+      </c>
+      <c r="H17">
+        <v>1.693623</v>
+      </c>
+      <c r="I17">
+        <v>0.1667551335140479</v>
+      </c>
+      <c r="J17">
+        <v>0.1667551335140479</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>58.15600466666667</v>
+      </c>
+      <c r="N17">
+        <v>174.468014</v>
+      </c>
+      <c r="O17">
+        <v>0.7114052344453117</v>
+      </c>
+      <c r="P17">
+        <v>0.7114052344453117</v>
+      </c>
+      <c r="Q17">
+        <v>32.83144903052467</v>
+      </c>
+      <c r="R17">
+        <v>295.483041274722</v>
+      </c>
+      <c r="S17">
+        <v>0.1186304748525205</v>
+      </c>
+      <c r="T17">
+        <v>0.1186304748525205</v>
       </c>
     </row>
   </sheetData>
